--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="17655" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>冯文</t>
+  </si>
+  <si>
+    <t>https://github.com/joker-f</t>
+  </si>
+  <si>
+    <t>https://github.com/joker-f/Bzt/tree/master/homework</t>
   </si>
   <si>
     <t>沈世伟</t>
@@ -220,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,7 +286,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,29 +400,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +434,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,19 +560,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,133 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,17 +713,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,15 +748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,17 +787,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,16 +830,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,115 +848,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,11 +1104,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1358,16 +1359,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2094,9 +2096,13 @@
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -2110,7 +2116,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2128,7 +2134,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2280,6 +2286,8 @@
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
     <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
+    <hyperlink ref="C36" r:id="rId23" display="https://github.com/joker-f"/>
+    <hyperlink ref="E36" r:id="rId24" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -228,8 +228,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -391,13 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -407,6 +400,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -434,6 +434,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,12 +452,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,25 +512,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,42 +584,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -560,61 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,133 +830,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1368,7 +1368,7 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
@@ -2096,11 +2096,11 @@
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="15"/>
@@ -2286,8 +2286,8 @@
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
     <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
-    <hyperlink ref="C36" r:id="rId23" display="https://github.com/joker-f"/>
-    <hyperlink ref="E36" r:id="rId24" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
+    <hyperlink ref="C36" r:id="rId23" display="https://github.com/joker-f" tooltip="https://github.com/joker-f"/>
+    <hyperlink ref="E36" r:id="rId24" display="https://github.com/joker-f/Bzt/tree/master/homework" tooltip="https://github.com/joker-f/Bzt/tree/master/homework"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17655" windowHeight="4425"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -207,12 +207,6 @@
   </si>
   <si>
     <t>冯文</t>
-  </si>
-  <si>
-    <t>https://github.com/joker-f</t>
-  </si>
-  <si>
-    <t>https://github.com/joker-f/Bzt/tree/master/homework</t>
   </si>
   <si>
     <t>沈世伟</t>
@@ -226,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -286,6 +280,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -307,111 +400,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -434,6 +428,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,175 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,26 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +733,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,17 +781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,16 +824,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,115 +842,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,6 +1098,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1359,17 +1358,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2096,13 +2094,9 @@
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="18" t="s">
-        <v>65</v>
-      </c>
+      <c r="E36" s="14"/>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -2116,7 +2110,7 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2134,7 +2128,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2286,8 +2280,6 @@
     <hyperlink ref="C21" r:id="rId20" display="https://github.com/xiaocainiao07"/>
     <hyperlink ref="E21" r:id="rId21" display="https://github.com/xiaocainiao07/homework"/>
     <hyperlink ref="E27" r:id="rId22" display="https://github.com/lanou123456/homeDemo"/>
-    <hyperlink ref="C36" r:id="rId23" display="https://github.com/joker-f"/>
-    <hyperlink ref="E36" r:id="rId24" display="https://github.com/joker-f/Bzt/tree/master/homework"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>许寒</t>
+  </si>
+  <si>
+    <t>https://github.com/xuhan961228/xuhan2.git</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -273,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -331,29 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -377,22 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,22 +367,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +428,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -481,6 +484,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,25 +532,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,12 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,48 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,30 +788,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -857,6 +836,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -865,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,16 +880,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,115 +898,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1752,7 +1755,9 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -1766,14 +1771,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1788,14 +1793,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1812,14 +1817,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1836,14 +1841,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1858,14 +1863,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1880,7 +1885,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1898,7 +1903,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1918,14 +1923,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1942,14 +1947,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1964,14 +1969,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1986,7 +1991,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2004,7 +2009,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2024,14 +2029,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2048,14 +2053,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2070,14 +2075,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2092,7 +2097,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2110,10 +2115,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2132,10 +2137,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2154,14 +2159,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2176,7 +2181,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2194,14 +2199,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2216,7 +2221,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2387,6 +2392,7 @@
     <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
+    <hyperlink ref="E16" r:id="rId42" display="https://github.com/xuhan961228/xuhan2.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>许寒</t>
+  </si>
+  <si>
+    <t>https://github.com/xuhan961228</t>
   </si>
   <si>
     <t>https://github.com/xuhan961228/xuhan2.git</t>
@@ -276,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1422,7 +1425,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1753,10 +1756,12 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="18" t="s">
-        <v>34</v>
+      <c r="E16" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
@@ -1771,14 +1776,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1793,14 +1798,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1817,14 +1822,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1841,14 +1846,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1863,14 +1868,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1885,7 +1890,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1903,7 +1908,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1923,14 +1928,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1947,14 +1952,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1969,14 +1974,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1991,7 +1996,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2009,7 +2014,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2029,14 +2034,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2053,14 +2058,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2075,14 +2080,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2097,7 +2102,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2115,10 +2120,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2137,10 +2142,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2159,14 +2164,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2181,7 +2186,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2199,14 +2204,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2221,7 +2226,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2392,7 +2397,8 @@
     <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
-    <hyperlink ref="E16" r:id="rId42" display="https://github.com/xuhan961228/xuhan2.git"/>
+    <hyperlink ref="E16" r:id="rId42" display="https://github.com/xuhan961228/xuhan2.git" tooltip="https://github.com/xuhan961228/xuhan2.git"/>
+    <hyperlink ref="C16" r:id="rId43" display="https://github.com/xuhan961228"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>许寒</t>
-  </si>
-  <si>
-    <t>https://github.com/xuhan961228</t>
   </si>
   <si>
     <t>https://github.com/xuhan961228/xuhan2.git</t>
@@ -279,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1425,7 +1422,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1756,12 +1753,10 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
@@ -1776,14 +1771,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1798,14 +1793,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1822,14 +1817,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1846,14 +1841,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1868,14 +1863,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1890,7 +1885,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1908,7 +1903,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1928,14 +1923,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1952,14 +1947,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1974,14 +1969,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1996,7 +1991,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2014,7 +2009,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2034,14 +2029,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2058,14 +2053,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2080,14 +2075,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2102,7 +2097,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2120,10 +2115,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2142,10 +2137,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2164,14 +2159,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2186,7 +2181,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2204,14 +2199,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2226,7 +2221,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2397,8 +2392,7 @@
     <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
-    <hyperlink ref="E16" r:id="rId42" display="https://github.com/xuhan961228/xuhan2.git" tooltip="https://github.com/xuhan961228/xuhan2.git"/>
-    <hyperlink ref="C16" r:id="rId43" display="https://github.com/xuhan961228"/>
+    <hyperlink ref="E16" r:id="rId42" display="https://github.com/xuhan961228/xuhan2.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>许寒</t>
-  </si>
-  <si>
-    <t>https://github.com/xuhan961228/xuhan2.git</t>
   </si>
   <si>
     <t>杜大文</t>
@@ -276,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -334,6 +331,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -357,9 +377,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,29 +400,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,35 +454,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -484,6 +481,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,25 +529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,12 +619,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -575,72 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +785,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -836,30 +857,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -868,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,16 +877,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,115 +895,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1421,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1755,9 +1752,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -1771,14 +1766,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1793,14 +1788,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1817,14 +1812,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1841,14 +1836,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1863,14 +1858,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1885,7 +1880,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1903,7 +1898,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1923,14 +1918,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
@@ -1947,14 +1942,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1969,14 +1964,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1991,7 +1986,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2009,7 +2004,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2029,14 +2024,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2053,14 +2048,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2075,14 +2070,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2097,7 +2092,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2115,10 +2110,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2137,10 +2132,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="14"/>
@@ -2159,14 +2154,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2181,7 +2176,7 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2199,14 +2194,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2221,7 +2216,7 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2392,7 +2387,6 @@
     <hyperlink ref="E17" r:id="rId39" display="https://github.com/Sole-Memory-ddw"/>
     <hyperlink ref="C37" r:id="rId40" display="https://github.com/shen-shi-wei"/>
     <hyperlink ref="E37" r:id="rId41" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/javaSE%E7%BB%83%E4%B9%A0%E9%A1%B9%E7%9B%AE"/>
-    <hyperlink ref="E16" r:id="rId42" display="https://github.com/xuhan961228/xuhan2.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>https://github.com/develope1989</t>
+  </si>
+  <si>
+    <t>https://github.com/develope1989/GitHubJava</t>
   </si>
   <si>
     <t>刘鑫</t>
@@ -288,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -346,6 +349,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -363,15 +389,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,9 +419,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,14 +434,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,50 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -496,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,16 +803,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +837,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,30 +875,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -880,145 +883,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,7 +1437,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2157,7 +2160,9 @@
         <v>77</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -2173,14 +2178,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2195,14 +2200,14 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
@@ -2217,14 +2222,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2239,12 +2244,12 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
@@ -2417,6 +2422,7 @@
     <hyperlink ref="C16" r:id="rId44" display="https://github.com/xuhan961228"/>
     <hyperlink ref="E16" r:id="rId45" display="https://github.com/xuhan961228/xuhan2.git"/>
     <hyperlink ref="E38" r:id="rId46" display="https://github.com/chenhonggangNZ/quitWorkSpace/tree/master/Day16_URLConnection"/>
+    <hyperlink ref="E34" r:id="rId47" display="https://github.com/develope1989/GitHubJava"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>熊志祥</t>
+  </si>
+  <si>
+    <t>https://github.com/qwer894142194</t>
+  </si>
+  <si>
+    <t>https://github.com/qwer894142194/JAVASE/tree/master/day-16%E9%A1%B9%E7%9B%AE</t>
   </si>
   <si>
     <t>石水山</t>
@@ -292,9 +298,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -456,9 +462,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,8 +476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +511,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -517,30 +535,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,48 +559,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -613,13 +619,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,54 +686,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,142 +889,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,6 +1181,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1430,17 +1441,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:F34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1691,9 +1701,13 @@
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
@@ -1707,7 +1721,7 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1727,14 +1741,14 @@
         <v>16</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
@@ -1751,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1769,14 +1783,14 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
@@ -1791,14 +1805,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1813,14 +1827,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1837,14 +1851,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1861,14 +1875,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1883,14 +1897,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1905,7 +1919,7 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1923,7 +1937,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1943,14 +1957,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
@@ -1967,14 +1981,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -1989,14 +2003,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -2011,7 +2025,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2029,7 +2043,7 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2049,14 +2063,14 @@
         <v>16</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
@@ -2073,14 +2087,14 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2095,14 +2109,14 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -2117,7 +2131,7 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2135,10 +2149,10 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="14"/>
@@ -2157,14 +2171,14 @@
         <v>16</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
@@ -2181,14 +2195,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
@@ -2203,14 +2217,14 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
@@ -2225,14 +2239,14 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
@@ -2247,12 +2261,12 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
@@ -2426,6 +2440,8 @@
     <hyperlink ref="E16" r:id="rId45" display="https://github.com/xuhan961228/xuhan2.git"/>
     <hyperlink ref="E38" r:id="rId46" display="https://github.com/chenhonggangNZ/quitWorkSpace/tree/master/Day16_URLConnection"/>
     <hyperlink ref="E34" r:id="rId47" display="https://github.com/develope1989/GitHubJava"/>
+    <hyperlink ref="C12" r:id="rId48" display="https://github.com/qwer894142194"/>
+    <hyperlink ref="E12" r:id="rId49" display="https://github.com/qwer894142194/JAVASE/tree/master/day-16%E9%A1%B9%E7%9B%AE"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>WHJ171103班学员信息统计表</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl</t>
+  </si>
+  <si>
+    <t>https://github.com/zfc103489252/local</t>
   </si>
   <si>
     <t>熊志祥</t>
@@ -341,9 +344,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -391,9 +394,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,80 +509,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,36 +523,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -548,25 +551,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,156 +732,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,21 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -853,6 +841,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,17 +872,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +885,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,15 +927,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -932,10 +935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,16 +947,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,115 +965,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,11 +1227,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1484,16 +1482,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1730,11 +1729,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -1746,14 +1747,14 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
@@ -1768,14 +1769,14 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
@@ -1792,18 +1793,18 @@
         <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="30"/>
@@ -1818,14 +1819,14 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
@@ -1840,18 +1841,18 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="30"/>
@@ -1864,14 +1865,14 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
@@ -1886,14 +1887,14 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="14"/>
@@ -1910,14 +1911,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="14"/>
@@ -1934,14 +1935,14 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="14"/>
@@ -1956,14 +1957,14 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -1978,14 +1979,14 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="14"/>
@@ -2002,14 +2003,14 @@
         <v>17</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
@@ -2026,14 +2027,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="14"/>
@@ -2048,14 +2049,14 @@
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="14"/>
@@ -2070,14 +2071,14 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -2094,14 +2095,14 @@
         <v>17</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
@@ -2118,18 +2119,18 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="30"/>
@@ -2142,18 +2143,18 @@
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="30"/>
@@ -2166,14 +2167,14 @@
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -2190,18 +2191,18 @@
         <v>17</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="30"/>
@@ -2216,18 +2217,18 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="30"/>
@@ -2240,14 +2241,14 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
@@ -2262,18 +2263,18 @@
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="30"/>
@@ -2286,18 +2287,18 @@
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="30"/>
@@ -2445,7 +2446,7 @@
     <hyperlink ref="E27" r:id="rId30" display="https://github.com/13207161778/JBCC" tooltip="https://github.com/13207161778/JBCC"/>
     <hyperlink ref="E10" r:id="rId31" display="https://github.com/OnTheRightWay/workspace/tree/master/MyFirstProject"/>
     <hyperlink ref="E11" r:id="rId32" display="https://github.com/zfc103489252/local/tree/master/Day16_demo/src/zcdl"/>
-    <hyperlink ref="C11" r:id="rId33" display="https://github.com/zfc103489252"/>
+    <hyperlink ref="C11" r:id="rId33" display="https://github.com/zfc103489252" tooltip="https://github.com/zfc103489252"/>
     <hyperlink ref="E25" r:id="rId34" display="https://github.com/bestbelief/-"/>
     <hyperlink ref="C25" r:id="rId35" display="https://github.com/bestbelief/"/>
     <hyperlink ref="E24" r:id="rId36" display="https://github.com/chenzhaoxiong/Java_ProjectData/tree/master/assignment"/>
@@ -2482,6 +2483,7 @@
     <hyperlink ref="G34" r:id="rId65" display="https://github.com/shen-shi-wei/shen-shi-wei/tree/master/day20homework"/>
     <hyperlink ref="G31" r:id="rId47" display="https://github.com/yanyucong/homework"/>
     <hyperlink ref="G35" r:id="rId66" display="https://github.com/chenhonggangNZ/quitWorkSpace/day19"/>
+    <hyperlink ref="G11" r:id="rId67" display="https://github.com/zfc103489252/local" tooltip="https://github.com/zfc103489252/local"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/学员信息统计.xlsx
+++ b/学员信息统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -414,48 +414,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,35 +434,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,8 +462,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +524,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -562,90 +562,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -653,96 +743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,17 +841,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,17 +913,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,39 +938,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -946,145 +946,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1831,7 +1831,9 @@
         <v>42</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -2521,6 +2523,7 @@
     <hyperlink ref="G19" r:id="rId18" display="https://github.com/xianyuchunlai/homeWork"/>
     <hyperlink ref="G25" r:id="rId46" display="https://github.com/lanou123456/homeDemo"/>
     <hyperlink ref="G9" r:id="rId28" display="https://github.com/DmeoL/LXHomeWork"/>
+    <hyperlink ref="G14" r:id="rId57" display="https://github.com/CaiLin123/zuoye" tooltip="https://github.com/CaiLin123/zuoye"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
